--- a/Sem6/Nuclear/Expt3/sca_data.xlsx
+++ b/Sem6/Nuclear/Expt3/sca_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Sem6\Nuclear\Expt3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7248CD7F-CBC9-4DF9-BF8B-52E45909BCA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8C5AEC-B7A3-4DE5-A9F9-D18F042F60D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{A78DD6EC-45B6-4A56-92E9-3C4CA1BDE9C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{A78DD6EC-45B6-4A56-92E9-3C4CA1BDE9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="500V" sheetId="4" r:id="rId1"/>
@@ -548,6 +548,424 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'550v'!$B$7:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'550v'!$C$7:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4928</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5764</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD92-40A8-8DBC-564BC9A4F23E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1145968752"/>
+        <c:axId val="1214491504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1145968752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214491504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1214491504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145968752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -877,7 +1295,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1399,6 +1817,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2432,6 +2890,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2994,6 +3968,47 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECEAB62-0624-49DC-8CDF-630FD888FE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
@@ -3029,7 +4044,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3369,8 +4384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6611A0F-C1ED-4072-BEA2-48D44948E425}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3553,8 +4568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296CEEC6-2F3A-45FE-B0BD-E8B383033A9B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3568,7 +4583,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B7">
         <v>1.9</v>
       </c>
       <c r="C7">
@@ -3576,7 +4591,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
@@ -3584,7 +4599,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B9">
         <v>2.2000000000000002</v>
       </c>
       <c r="C9">
@@ -3592,7 +4607,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B10">
         <v>2.4</v>
       </c>
       <c r="C10">
@@ -3600,7 +4615,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B11">
         <v>2.5</v>
       </c>
       <c r="C11">
@@ -3608,7 +4623,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B12">
         <v>2.7</v>
       </c>
       <c r="C12">
@@ -3616,7 +4631,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B13">
         <v>2.8</v>
       </c>
       <c r="C13">
@@ -3624,7 +4639,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B14">
         <v>3.1</v>
       </c>
       <c r="C14">
@@ -3632,7 +4647,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B15">
         <v>3.2</v>
       </c>
       <c r="C15">
@@ -3640,111 +4655,111 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B16">
         <v>3.3</v>
       </c>
       <c r="C16">
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>3.4</v>
       </c>
       <c r="C17">
         <v>664</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>3.5</v>
       </c>
       <c r="C18">
         <v>1002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>3.6</v>
       </c>
       <c r="C19">
         <v>1835</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>3.7</v>
       </c>
       <c r="C20">
         <v>3250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>3.8</v>
       </c>
       <c r="C21">
         <v>4928</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>3.9</v>
       </c>
       <c r="C22">
         <v>5721</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
         <v>4977</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>4.0999999999999996</v>
       </c>
       <c r="C24">
         <v>2839</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>4.2</v>
       </c>
       <c r="C25">
         <v>1261</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>4.3</v>
       </c>
       <c r="C26">
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>4.4000000000000004</v>
       </c>
       <c r="C27">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>3.86</v>
       </c>
       <c r="C28">
         <v>5764</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>3.94</v>
       </c>
       <c r="C29">
@@ -3753,6 +4768,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3921,7 +4937,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sem6/Nuclear/Expt3/sca_data.xlsx
+++ b/Sem6/Nuclear/Expt3/sca_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Sem6\Nuclear\Expt3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8C5AEC-B7A3-4DE5-A9F9-D18F042F60D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD07FB29-185C-4C4F-A8C2-5BB4C062D52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{A78DD6EC-45B6-4A56-92E9-3C4CA1BDE9C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3" xr2:uid="{A78DD6EC-45B6-4A56-92E9-3C4CA1BDE9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="500V" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>v</t>
   </si>
@@ -36,7 +36,10 @@
     <t>counts</t>
   </si>
   <si>
-    <t>count</t>
+    <t>Base Line (V)</t>
+  </si>
+  <si>
+    <t>Counts</t>
   </si>
 </sst>
 </file>
@@ -570,77 +573,56 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'550v'!$B$7:$B$29</c:f>
+              <c:f>'550v'!$B$7:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8</c:v>
+                  <c:v>3.86</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.86</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>3.94</c:v>
                 </c:pt>
               </c:numCache>
@@ -648,77 +630,56 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'550v'!$C$7:$C$29</c:f>
+              <c:f>'550v'!$C$7:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1586</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1540</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1440</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1496</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1375</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1057</c:v>
+                  <c:v>1835</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>792</c:v>
+                  <c:v>3250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>451</c:v>
+                  <c:v>4928</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>433</c:v>
+                  <c:v>5721</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>545</c:v>
+                  <c:v>4977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>664</c:v>
+                  <c:v>2839</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1002</c:v>
+                  <c:v>1261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1835</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4928</c:v>
+                  <c:v>5764</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5721</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4977</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2839</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1261</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>431</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5764</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>5666</c:v>
                 </c:pt>
               </c:numCache>
@@ -3968,13 +3929,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4384,18 +4345,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6611A0F-C1ED-4072-BEA2-48D44948E425}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4566,10 +4527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296CEEC6-2F3A-45FE-B0BD-E8B383033A9B}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4582,187 +4543,139 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="C7">
-        <v>1586</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="C8">
-        <v>1540</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="C9">
-        <v>1440</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="C10">
-        <v>1496</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="C11">
-        <v>1375</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="C12">
-        <v>1057</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="C13">
-        <v>792</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="C14">
-        <v>451</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="C15">
-        <v>433</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>545</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>3.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C17">
-        <v>664</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="C18">
-        <v>1002</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="C19">
-        <v>1835</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C20">
-        <v>3250</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>3.8</v>
+        <v>3.86</v>
       </c>
       <c r="C21">
-        <v>4928</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="C22">
-        <v>5721</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>4977</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C24">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>4.2</v>
-      </c>
-      <c r="C25">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>4.3</v>
-      </c>
-      <c r="C26">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C27">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>3.86</v>
-      </c>
-      <c r="C28">
-        <v>5764</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>3.94</v>
-      </c>
-      <c r="C29">
         <v>5666</v>
       </c>
     </row>
@@ -4777,17 +4690,17 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B18"/>
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4936,18 +4849,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5436624C-5496-4C01-A2D5-B81BD6CA69DB}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
